--- a/Experiment Key.xlsx
+++ b/Experiment Key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\GitHub\CoffeyBehavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.Coffey\Documents\GitHub\CoffeyBehavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9165C5B7-95B7-48D0-925D-57B32F69B3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EB1F6D-2CFC-4E48-87C0-F46B522406FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
+    <workbookView xWindow="6816" yWindow="2076" windowWidth="23040" windowHeight="13872" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="127">
   <si>
     <t>'22-Oct-2024'</t>
   </si>
@@ -583,39 +583,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,25 +624,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,40 +647,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -813,11 +770,45 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -833,16 +824,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66D5D3F3-56B7-46A6-A496-8A38EB2958B8}" name="Table1" displayName="Table1" ref="A1:G118" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66D5D3F3-56B7-46A6-A496-8A38EB2958B8}" name="Table1" displayName="Table1" ref="A1:G118" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:G118" xr:uid="{66D5D3F3-56B7-46A6-A496-8A38EB2958B8}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AC6BF73A-E8FB-4DE1-8466-D18151A4B8E7}" name="Run" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C1A30F8F-799D-4454-AF86-7FDC3D02C95A}" name="Experiment" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{10669608-2E81-43C3-ACB0-E8F3716E758C}" name="Date" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{8231ECF3-FA36-4D2B-B9D2-B876D950D3FF}" name="Session" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{064861AC-CD6B-4377-A1E4-9F4A58A8B507}" name="Session Type" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F33AC377-525A-4FF9-ADD6-F8A4D9B5F439}" name="Fentanyl Concentration (ug/ml)" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F90B955B-0B18-4811-A232-903938BCEB82}" name="Volume per dose (mL)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AC6BF73A-E8FB-4DE1-8466-D18151A4B8E7}" name="Run" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C1A30F8F-799D-4454-AF86-7FDC3D02C95A}" name="Experiment" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{10669608-2E81-43C3-ACB0-E8F3716E758C}" name="Date" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8231ECF3-FA36-4D2B-B9D2-B876D950D3FF}" name="Session" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{064861AC-CD6B-4377-A1E4-9F4A58A8B507}" name="Session Type" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F33AC377-525A-4FF9-ADD6-F8A4D9B5F439}" name="Fentanyl Concentration (ug/ml)" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F90B955B-0B18-4811-A232-903938BCEB82}" name="Volume per dose (mL)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1168,625 +1159,625 @@
   <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1"/>
+    <col min="9" max="9" width="17.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="10">
-        <v>70</v>
-      </c>
-      <c r="G2" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="F2" s="1">
+        <v>70</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="10">
-        <v>70</v>
-      </c>
-      <c r="G3" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="F3" s="1">
+        <v>70</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="10">
-        <v>70</v>
-      </c>
-      <c r="G4" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="F4" s="1">
+        <v>70</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="10">
-        <v>70</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="F5" s="1">
+        <v>70</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10">
-        <v>70</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="F6" s="1">
+        <v>70</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="10">
-        <v>70</v>
-      </c>
-      <c r="G7" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>70</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="10">
-        <v>70</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>70</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10">
-        <v>70</v>
-      </c>
-      <c r="G9" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
+        <v>70</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="1">
         <v>9</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10">
-        <v>70</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>70</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="10">
-        <v>70</v>
-      </c>
-      <c r="G11" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1">
+        <v>70</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="10">
-        <v>70</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1">
+        <v>70</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="10">
-        <v>70</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1">
+        <v>70</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="1">
         <v>13</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="10">
-        <v>70</v>
-      </c>
-      <c r="G14" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1">
+        <v>70</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="1">
         <v>14</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="10">
-        <v>70</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1">
+        <v>70</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="1">
         <v>15</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="10">
-        <v>70</v>
-      </c>
-      <c r="G16" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1">
+        <v>70</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="1">
         <v>16</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="G17" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="1">
         <v>17</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="G18" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="1">
         <v>18</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>4</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="G19" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="1">
         <v>19</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="G20" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="1">
         <v>20</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>4</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="G21" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="10">
-        <v>21</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="1">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="G22" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="10">
-        <v>22</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>4</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="G23" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="1">
         <v>23</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>4</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="G24" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <v>4</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="G25" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="1">
         <v>25</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="G26" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1801,15 +1792,15 @@
       <c r="E27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="4">
-        <v>70</v>
-      </c>
-      <c r="G27" s="20">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="F27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1827,472 +1818,472 @@
       <c r="F28" s="6">
         <v>70</v>
       </c>
-      <c r="G28" s="22">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
-        <v>4</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="G28" s="19">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="10">
-        <v>70</v>
-      </c>
-      <c r="G29" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
-        <v>4</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="F29" s="1">
+        <v>70</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="10">
-        <v>70</v>
-      </c>
-      <c r="G30" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
-        <v>4</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="F30" s="1">
+        <v>70</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="10">
-        <v>4</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="10">
-        <v>70</v>
-      </c>
-      <c r="G31" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
-        <v>4</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="F31" s="1">
+        <v>70</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="10">
-        <v>70</v>
-      </c>
-      <c r="G32" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
-        <v>4</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="F32" s="1">
+        <v>70</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="1">
         <v>6</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="10">
-        <v>70</v>
-      </c>
-      <c r="G33" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
-        <v>4</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="E33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>70</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="1">
         <v>7</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="10">
-        <v>70</v>
-      </c>
-      <c r="G34" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
-        <v>4</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="E34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="1">
+        <v>70</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="1">
         <v>8</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="10">
-        <v>70</v>
-      </c>
-      <c r="G35" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
-        <v>4</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="E35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="1">
+        <v>70</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="1">
         <v>9</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="10">
-        <v>70</v>
-      </c>
-      <c r="G36" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
-        <v>4</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="E36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="1">
+        <v>70</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="1">
         <v>10</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="10">
-        <v>70</v>
-      </c>
-      <c r="G37" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
-        <v>4</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="E37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="1">
+        <v>70</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="1">
         <v>11</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="10">
-        <v>70</v>
-      </c>
-      <c r="G38" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
-        <v>4</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="E38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="1">
+        <v>70</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="1">
         <v>12</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="10">
-        <v>70</v>
-      </c>
-      <c r="G39" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
-        <v>4</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="E39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="1">
+        <v>70</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="1">
         <v>13</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="10">
-        <v>70</v>
-      </c>
-      <c r="G40" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
-        <v>4</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="E40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1">
+        <v>70</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="1">
         <v>14</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="10">
-        <v>70</v>
-      </c>
-      <c r="G41" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
-        <v>4</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="E41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="1">
+        <v>70</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="1">
         <v>15</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="10">
-        <v>70</v>
-      </c>
-      <c r="G42" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
-        <v>4</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="E42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="1">
+        <v>70</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="1">
         <v>16</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="1">
         <v>222</v>
       </c>
-      <c r="G43" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
-        <v>4</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="G43" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="1">
         <v>17</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="1">
         <v>125</v>
       </c>
-      <c r="G44" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
-        <v>4</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="G44" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="1">
         <v>18</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="10">
-        <v>70</v>
-      </c>
-      <c r="G45" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
-        <v>4</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="F45" s="1">
+        <v>70</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="1">
         <v>19</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="1">
         <v>40</v>
       </c>
-      <c r="G46" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
-        <v>4</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="11" t="s">
+      <c r="G46" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="1">
         <v>20</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="10">
-        <v>22</v>
-      </c>
-      <c r="G47" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
-        <v>4</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="11" t="s">
+      <c r="F47" s="1">
+        <v>22</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="10">
-        <v>21</v>
-      </c>
-      <c r="E48" s="10" t="s">
+      <c r="D48" s="1">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="10">
-        <v>70</v>
-      </c>
-      <c r="G48" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19">
+      <c r="F48" s="1">
+        <v>70</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="16">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2310,12 +2301,12 @@
       <c r="F49" s="4">
         <v>70</v>
       </c>
-      <c r="G49" s="20">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="G49" s="17">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
         <v>3</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -2333,495 +2324,495 @@
       <c r="F50" s="6">
         <v>70</v>
       </c>
-      <c r="G50" s="22">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+      <c r="G50" s="19">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
         <v>3</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="10">
-        <v>70</v>
-      </c>
-      <c r="G51" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+      <c r="F51" s="1">
+        <v>70</v>
+      </c>
+      <c r="G51" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
         <v>3</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="B52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="1">
         <v>2</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="10">
-        <v>70</v>
-      </c>
-      <c r="G52" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+      <c r="F52" s="1">
+        <v>70</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
         <v>3</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="B53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="1">
         <v>3</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="10">
-        <v>70</v>
-      </c>
-      <c r="G53" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="F53" s="1">
+        <v>70</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="14">
         <v>3</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="10">
-        <v>4</v>
-      </c>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="10">
-        <v>70</v>
-      </c>
-      <c r="G54" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+      <c r="F54" s="1">
+        <v>70</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
         <v>3</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="1">
         <v>5</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="10">
-        <v>70</v>
-      </c>
-      <c r="G55" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="F55" s="1">
+        <v>70</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="14">
         <v>3</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="B56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="1">
         <v>6</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="10">
-        <v>70</v>
-      </c>
-      <c r="G56" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+      <c r="E56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="1">
+        <v>70</v>
+      </c>
+      <c r="G56" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
         <v>3</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="1">
         <v>7</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="10">
-        <v>70</v>
-      </c>
-      <c r="G57" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="E57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="1">
+        <v>70</v>
+      </c>
+      <c r="G57" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="14">
         <v>3</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="11" t="s">
+      <c r="B58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="1">
         <v>8</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="10">
-        <v>70</v>
-      </c>
-      <c r="G58" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="E58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="1">
+        <v>70</v>
+      </c>
+      <c r="G58" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
         <v>3</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="1">
         <v>9</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="10">
-        <v>70</v>
-      </c>
-      <c r="G59" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+      <c r="E59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="1">
+        <v>70</v>
+      </c>
+      <c r="G59" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="14">
         <v>3</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="1">
         <v>10</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="10">
-        <v>70</v>
-      </c>
-      <c r="G60" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+      <c r="E60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="1">
+        <v>70</v>
+      </c>
+      <c r="G60" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="14">
         <v>3</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="1">
         <v>11</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="10">
-        <v>70</v>
-      </c>
-      <c r="G61" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+      <c r="E61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="1">
+        <v>70</v>
+      </c>
+      <c r="G61" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="14">
         <v>3</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="B62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="1">
         <v>12</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="10">
-        <v>70</v>
-      </c>
-      <c r="G62" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+      <c r="E62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="1">
+        <v>70</v>
+      </c>
+      <c r="G62" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
         <v>3</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="1">
         <v>13</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="10">
-        <v>70</v>
-      </c>
-      <c r="G63" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+      <c r="E63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="1">
+        <v>70</v>
+      </c>
+      <c r="G63" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
         <v>3</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="1">
         <v>14</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="10">
-        <v>70</v>
-      </c>
-      <c r="G64" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+      <c r="E64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="1">
+        <v>70</v>
+      </c>
+      <c r="G64" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
         <v>3</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="1">
         <v>15</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="10">
-        <v>70</v>
-      </c>
-      <c r="G65" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+      <c r="E65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="1">
+        <v>70</v>
+      </c>
+      <c r="G65" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="14">
         <v>3</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="11" t="s">
+      <c r="B66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="1">
         <v>16</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="1">
         <v>222</v>
       </c>
-      <c r="G66" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
+      <c r="G66" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
         <v>3</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="1">
         <v>17</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="1">
         <v>125</v>
       </c>
-      <c r="G67" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
+      <c r="G67" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="14">
         <v>3</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="1">
         <v>18</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="10">
-        <v>70</v>
-      </c>
-      <c r="G68" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
+      <c r="F68" s="1">
+        <v>70</v>
+      </c>
+      <c r="G68" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="14">
         <v>3</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="11" t="s">
+      <c r="B69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="1">
         <v>19</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="1">
         <v>40</v>
       </c>
-      <c r="G69" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
+      <c r="G69" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="14">
         <v>3</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="1">
         <v>20</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F70" s="10">
-        <v>22</v>
-      </c>
-      <c r="G70" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
+      <c r="F70" s="1">
+        <v>22</v>
+      </c>
+      <c r="G70" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="14">
         <v>3</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="11" t="s">
+      <c r="B71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="10">
-        <v>21</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="1">
+        <v>21</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F71" s="10">
-        <v>70</v>
-      </c>
-      <c r="G71" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19">
+      <c r="F71" s="1">
+        <v>70</v>
+      </c>
+      <c r="G71" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -2839,12 +2830,12 @@
       <c r="F72" s="4">
         <v>70</v>
       </c>
-      <c r="G72" s="20">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="21">
+      <c r="G72" s="17">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
         <v>2</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -2862,426 +2853,426 @@
       <c r="F73" s="6">
         <v>70</v>
       </c>
-      <c r="G73" s="22">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+      <c r="G73" s="19">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="14">
         <v>2</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="1">
         <v>2</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="10">
-        <v>70</v>
-      </c>
-      <c r="G74" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
+      <c r="F74" s="1">
+        <v>70</v>
+      </c>
+      <c r="G74" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="14">
         <v>2</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="1">
         <v>3</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="10">
-        <v>70</v>
-      </c>
-      <c r="G75" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+      <c r="F75" s="1">
+        <v>70</v>
+      </c>
+      <c r="G75" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="14">
         <v>2</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" s="11" t="s">
+      <c r="B76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="10">
-        <v>4</v>
-      </c>
-      <c r="E76" s="10" t="s">
+      <c r="D76" s="1">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="10">
-        <v>70</v>
-      </c>
-      <c r="G76" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
+      <c r="F76" s="1">
+        <v>70</v>
+      </c>
+      <c r="G76" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="14">
         <v>2</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="11" t="s">
+      <c r="B77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="1">
         <v>5</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="10">
-        <v>70</v>
-      </c>
-      <c r="G77" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
+      <c r="F77" s="1">
+        <v>70</v>
+      </c>
+      <c r="G77" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="14">
         <v>2</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="B78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="1">
         <v>6</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="10">
-        <v>70</v>
-      </c>
-      <c r="G78" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="16">
+      <c r="E78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="1">
+        <v>70</v>
+      </c>
+      <c r="G78" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="14">
         <v>2</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="1">
         <v>7</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F79" s="10">
-        <v>70</v>
-      </c>
-      <c r="G79" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="16">
+      <c r="E79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="1">
+        <v>70</v>
+      </c>
+      <c r="G79" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="14">
         <v>2</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="1">
         <v>8</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" s="10">
-        <v>70</v>
-      </c>
-      <c r="G80" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="16">
+      <c r="E80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="1">
+        <v>70</v>
+      </c>
+      <c r="G80" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="14">
         <v>2</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="1">
         <v>9</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F81" s="10">
-        <v>70</v>
-      </c>
-      <c r="G81" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
+      <c r="E81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="1">
+        <v>70</v>
+      </c>
+      <c r="G81" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="14">
         <v>2</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="B82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="1">
         <v>10</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F82" s="10">
-        <v>70</v>
-      </c>
-      <c r="G82" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="16">
+      <c r="E82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" s="1">
+        <v>70</v>
+      </c>
+      <c r="G82" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="14">
         <v>2</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="1">
         <v>11</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="10">
-        <v>70</v>
-      </c>
-      <c r="G83" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
+      <c r="E83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="1">
+        <v>70</v>
+      </c>
+      <c r="G83" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="14">
         <v>2</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="B84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="1">
         <v>12</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" s="10">
-        <v>70</v>
-      </c>
-      <c r="G84" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="16">
+      <c r="E84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="1">
+        <v>70</v>
+      </c>
+      <c r="G84" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="14">
         <v>2</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="11" t="s">
+      <c r="B85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="1">
         <v>13</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="10">
-        <v>70</v>
-      </c>
-      <c r="G85" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="16">
+      <c r="E85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="1">
+        <v>70</v>
+      </c>
+      <c r="G85" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="14">
         <v>2</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="1">
         <v>14</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="10">
-        <v>70</v>
-      </c>
-      <c r="G86" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="16">
+      <c r="E86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="1">
+        <v>70</v>
+      </c>
+      <c r="G86" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="14">
         <v>2</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="B87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="1">
         <v>15</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="10">
-        <v>70</v>
-      </c>
-      <c r="G87" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
+      <c r="E87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="1">
+        <v>70</v>
+      </c>
+      <c r="G87" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="14">
         <v>2</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="B88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="1">
         <v>16</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="1">
         <v>222</v>
       </c>
-      <c r="G88" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="16">
+      <c r="G88" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="14">
         <v>2</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="11" t="s">
+      <c r="B89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="1">
         <v>17</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="1">
         <v>125</v>
       </c>
-      <c r="G89" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
+      <c r="G89" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="14">
         <v>2</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="11" t="s">
+      <c r="B90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="1">
         <v>18</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F90" s="10">
-        <v>70</v>
-      </c>
-      <c r="G90" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="16">
+      <c r="F90" s="1">
+        <v>70</v>
+      </c>
+      <c r="G90" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="14">
         <v>2</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="1">
         <v>19</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="1">
         <v>40</v>
       </c>
-      <c r="G91" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="19">
+      <c r="G91" s="15">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="16">
         <v>2</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -3299,24 +3290,24 @@
       <c r="F92" s="4">
         <v>22</v>
       </c>
-      <c r="G92" s="20">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
+      <c r="G92" s="17">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>1</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="11" t="s">
+      <c r="B93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="1">
         <v>1</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F93" s="1">
@@ -3326,7 +3317,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -3349,7 +3340,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -3372,7 +3363,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -3395,7 +3386,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -3418,7 +3409,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -3441,7 +3432,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -3464,7 +3455,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -3487,7 +3478,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -3510,7 +3501,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -3533,7 +3524,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -3556,7 +3547,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -3579,7 +3570,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -3602,7 +3593,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -3625,7 +3616,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -3648,7 +3639,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -3671,7 +3662,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -3694,7 +3685,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>1</v>
       </c>
@@ -3717,7 +3708,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -3740,7 +3731,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -3763,7 +3754,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -3786,7 +3777,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>1</v>
       </c>
@@ -3809,7 +3800,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -3832,7 +3823,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -3855,7 +3846,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -3878,7 +3869,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -3894,8 +3885,8 @@
       <c r="E118" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F118" s="1">
-        <v>70</v>
+      <c r="F118" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="G118" s="1">
         <v>1.9310000000000001E-2</v>

--- a/Experiment Key.xlsx
+++ b/Experiment Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.Coffey\Documents\GitHub\CoffeyBehavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\GitHub\CoffeyBehavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EB1F6D-2CFC-4E48-87C0-F46B522406FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EB76E2-E6EE-4E23-826B-39277B3B043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6816" yWindow="2076" windowWidth="23040" windowHeight="13872" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="126">
   <si>
     <t>'22-Oct-2024'</t>
   </si>
@@ -408,9 +408,6 @@
   </si>
   <si>
     <t>ReTraining</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>Fentanyl Concentration (ug/ml)</t>
@@ -1159,26 +1156,26 @@
   <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1"/>
-    <col min="9" max="9" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1195,13 +1192,13 @@
         <v>20</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>4</v>
       </c>
@@ -1224,7 +1221,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>4</v>
       </c>
@@ -1247,7 +1244,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>4</v>
       </c>
@@ -1270,7 +1267,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1293,7 +1290,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -1316,7 +1313,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1339,7 +1336,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1362,7 +1359,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -1385,7 +1382,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>4</v>
       </c>
@@ -1408,7 +1405,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -1431,7 +1428,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>4</v>
       </c>
@@ -1454,7 +1451,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>4</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -1500,7 +1497,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>4</v>
       </c>
@@ -1523,7 +1520,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>4</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>4</v>
       </c>
@@ -1562,14 +1559,14 @@
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>124</v>
+      <c r="F17" s="1">
+        <v>0</v>
       </c>
       <c r="G17" s="15">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>4</v>
       </c>
@@ -1585,14 +1582,14 @@
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>124</v>
+      <c r="F18" s="1">
+        <v>0</v>
       </c>
       <c r="G18" s="15">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>4</v>
       </c>
@@ -1608,14 +1605,14 @@
       <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>124</v>
+      <c r="F19" s="1">
+        <v>0</v>
       </c>
       <c r="G19" s="15">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>4</v>
       </c>
@@ -1631,14 +1628,14 @@
       <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>124</v>
+      <c r="F20" s="1">
+        <v>0</v>
       </c>
       <c r="G20" s="15">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>4</v>
       </c>
@@ -1654,14 +1651,14 @@
       <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>124</v>
+      <c r="F21" s="1">
+        <v>0</v>
       </c>
       <c r="G21" s="15">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>4</v>
       </c>
@@ -1677,14 +1674,14 @@
       <c r="E22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>124</v>
+      <c r="F22" s="1">
+        <v>0</v>
       </c>
       <c r="G22" s="15">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>4</v>
       </c>
@@ -1700,14 +1697,14 @@
       <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>124</v>
+      <c r="F23" s="1">
+        <v>0</v>
       </c>
       <c r="G23" s="15">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>4</v>
       </c>
@@ -1723,14 +1720,14 @@
       <c r="E24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>124</v>
+      <c r="F24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="15">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>4</v>
       </c>
@@ -1746,14 +1743,14 @@
       <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>124</v>
+      <c r="F25" s="1">
+        <v>0</v>
       </c>
       <c r="G25" s="15">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>4</v>
       </c>
@@ -1769,14 +1766,14 @@
       <c r="E26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>124</v>
+      <c r="F26" s="1">
+        <v>0</v>
       </c>
       <c r="G26" s="15">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>4</v>
       </c>
@@ -1792,14 +1789,14 @@
       <c r="E27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>124</v>
+      <c r="F27" s="4">
+        <v>0</v>
       </c>
       <c r="G27" s="17">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>4</v>
       </c>
@@ -1822,7 +1819,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>4</v>
       </c>
@@ -1845,7 +1842,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>4</v>
       </c>
@@ -1868,7 +1865,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>4</v>
       </c>
@@ -1891,7 +1888,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>4</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>4</v>
       </c>
@@ -1937,7 +1934,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>4</v>
       </c>
@@ -1960,7 +1957,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>4</v>
       </c>
@@ -1983,7 +1980,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>4</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>4</v>
       </c>
@@ -2029,7 +2026,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>4</v>
       </c>
@@ -2052,7 +2049,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>4</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>4</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>4</v>
       </c>
@@ -2121,7 +2118,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>4</v>
       </c>
@@ -2144,7 +2141,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>4</v>
       </c>
@@ -2167,7 +2164,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>4</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>4</v>
       </c>
@@ -2213,7 +2210,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>4</v>
       </c>
@@ -2236,7 +2233,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>4</v>
       </c>
@@ -2259,7 +2256,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>4</v>
       </c>
@@ -2282,7 +2279,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>4</v>
       </c>
@@ -2305,7 +2302,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>3</v>
       </c>
@@ -2328,7 +2325,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>3</v>
       </c>
@@ -2351,7 +2348,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>3</v>
       </c>
@@ -2374,7 +2371,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>3</v>
       </c>
@@ -2397,7 +2394,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>3</v>
       </c>
@@ -2420,7 +2417,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>3</v>
       </c>
@@ -2443,7 +2440,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>3</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>3</v>
       </c>
@@ -2489,7 +2486,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>3</v>
       </c>
@@ -2512,7 +2509,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>3</v>
       </c>
@@ -2535,7 +2532,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>3</v>
       </c>
@@ -2558,7 +2555,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>3</v>
       </c>
@@ -2581,7 +2578,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>3</v>
       </c>
@@ -2604,7 +2601,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>3</v>
       </c>
@@ -2627,7 +2624,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>3</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>3</v>
       </c>
@@ -2673,7 +2670,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>3</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>3</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>3</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>3</v>
       </c>
@@ -2765,7 +2762,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>3</v>
       </c>
@@ -2788,7 +2785,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>3</v>
       </c>
@@ -2811,7 +2808,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>3</v>
       </c>
@@ -2834,7 +2831,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
         <v>2</v>
       </c>
@@ -2857,7 +2854,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>2</v>
       </c>
@@ -2880,7 +2877,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>2</v>
       </c>
@@ -2903,7 +2900,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>2</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>2</v>
       </c>
@@ -2949,7 +2946,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>2</v>
       </c>
@@ -2972,7 +2969,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>2</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>2</v>
       </c>
@@ -3018,7 +3015,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>2</v>
       </c>
@@ -3041,7 +3038,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>2</v>
       </c>
@@ -3064,7 +3061,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>2</v>
       </c>
@@ -3087,7 +3084,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>2</v>
       </c>
@@ -3110,7 +3107,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>2</v>
       </c>
@@ -3133,7 +3130,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>2</v>
       </c>
@@ -3156,7 +3153,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>2</v>
       </c>
@@ -3179,7 +3176,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>2</v>
       </c>
@@ -3202,7 +3199,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>2</v>
       </c>
@@ -3225,7 +3222,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>2</v>
       </c>
@@ -3248,7 +3245,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>2</v>
       </c>
@@ -3271,7 +3268,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>2</v>
       </c>
@@ -3294,7 +3291,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -3317,7 +3314,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -3340,7 +3337,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -3409,7 +3406,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -3432,7 +3429,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -3478,7 +3475,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -3501,7 +3498,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -3524,7 +3521,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -3547,7 +3544,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -3570,7 +3567,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -3593,7 +3590,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -3616,7 +3613,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -3639,7 +3636,7 @@
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -3655,14 +3652,14 @@
       <c r="E108" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>124</v>
+      <c r="F108" s="1">
+        <v>0</v>
       </c>
       <c r="G108" s="1">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -3678,14 +3675,14 @@
       <c r="E109" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>124</v>
+      <c r="F109" s="1">
+        <v>0</v>
       </c>
       <c r="G109" s="1">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1</v>
       </c>
@@ -3701,14 +3698,14 @@
       <c r="E110" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>124</v>
+      <c r="F110" s="1">
+        <v>0</v>
       </c>
       <c r="G110" s="1">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -3724,14 +3721,14 @@
       <c r="E111" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>124</v>
+      <c r="F111" s="1">
+        <v>0</v>
       </c>
       <c r="G111" s="1">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -3747,14 +3744,14 @@
       <c r="E112" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>124</v>
+      <c r="F112" s="1">
+        <v>0</v>
       </c>
       <c r="G112" s="1">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -3770,14 +3767,14 @@
       <c r="E113" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>124</v>
+      <c r="F113" s="1">
+        <v>0</v>
       </c>
       <c r="G113" s="1">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1</v>
       </c>
@@ -3793,14 +3790,14 @@
       <c r="E114" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>124</v>
+      <c r="F114" s="1">
+        <v>0</v>
       </c>
       <c r="G114" s="1">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -3816,14 +3813,14 @@
       <c r="E115" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>124</v>
+      <c r="F115" s="1">
+        <v>0</v>
       </c>
       <c r="G115" s="1">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -3839,14 +3836,14 @@
       <c r="E116" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>124</v>
+      <c r="F116" s="1">
+        <v>0</v>
       </c>
       <c r="G116" s="1">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -3862,14 +3859,14 @@
       <c r="E117" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>124</v>
+      <c r="F117" s="1">
+        <v>0</v>
       </c>
       <c r="G117" s="1">
-        <v>1.9310000000000001E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -3885,11 +3882,11 @@
       <c r="E118" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>124</v>
+      <c r="F118" s="4">
+        <v>0</v>
       </c>
       <c r="G118" s="1">
-        <v>1.9310000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment Key.xlsx
+++ b/Experiment Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrCoffey\Documents\GitHub\CoffeyBehavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Appleby\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C9CEA4-4A41-4C28-9578-2545E9C92440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CB8E6B-8550-4165-82DC-B02BEAA9DA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="17400" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD7F1C8E-C617-4CB6-9DA2-6C0677DD65A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="16">
   <si>
     <t>Run</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Extinction2</t>
+  </si>
+  <si>
+    <t>SA</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,16 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,8 +474,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66D5D3F3-56B7-46A6-A496-8A38EB2958B8}" name="Table1" displayName="Table1" ref="A1:G175" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="A1:G175" xr:uid="{66D5D3F3-56B7-46A6-A496-8A38EB2958B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66D5D3F3-56B7-46A6-A496-8A38EB2958B8}" name="Table1" displayName="Table1" ref="A1:G190" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="A1:G190" xr:uid="{66D5D3F3-56B7-46A6-A496-8A38EB2958B8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G144">
     <sortCondition ref="A1:A144"/>
   </sortState>
@@ -815,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB0A6A4-2587-470F-932D-101544863E20}">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G176" sqref="G176:G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,25 +2488,25 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="18">
-        <v>4</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="19">
+      <c r="A73" s="1">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="11">
         <v>45593</v>
       </c>
-      <c r="D73" s="18">
-        <v>6</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="18">
-        <v>70</v>
-      </c>
-      <c r="G73" s="18">
+      <c r="D73" s="1">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1">
+        <v>70</v>
+      </c>
+      <c r="G73" s="1">
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
@@ -3000,25 +2994,25 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="18">
-        <v>4</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="20">
+      <c r="A95" s="1">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="10">
         <v>45587</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="1">
         <v>2</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="18">
-        <v>70</v>
-      </c>
-      <c r="G95" s="18">
+      <c r="F95" s="1">
+        <v>70</v>
+      </c>
+      <c r="G95" s="1">
         <v>1.9310000000000001E-2</v>
       </c>
     </row>
@@ -3989,7 +3983,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="15">
+      <c r="A138" s="7">
         <v>5</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -4012,19 +4006,19 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="15">
+      <c r="A139" s="7">
         <v>5</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C139" s="17">
+      <c r="C139" s="10">
         <v>45733</v>
       </c>
       <c r="D139" s="1">
         <v>26</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F139" s="1">
@@ -4035,19 +4029,19 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="15">
+      <c r="A140" s="7">
         <v>5</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C140" s="17">
+      <c r="C140" s="10">
         <v>45734</v>
       </c>
       <c r="D140" s="1">
         <v>27</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="1">
@@ -4058,19 +4052,19 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="15">
+      <c r="A141" s="7">
         <v>5</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C141" s="17">
+      <c r="C141" s="10">
         <v>45735</v>
       </c>
       <c r="D141" s="1">
         <v>28</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F141" s="1">
@@ -4081,19 +4075,19 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="15">
+      <c r="A142" s="7">
         <v>5</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C142" s="17">
+      <c r="C142" s="10">
         <v>45736</v>
       </c>
       <c r="D142" s="1">
         <v>29</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F142" s="1">
@@ -4104,19 +4098,19 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="15">
+      <c r="A143" s="7">
         <v>5</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C143" s="17">
+      <c r="C143" s="10">
         <v>45737</v>
       </c>
       <c r="D143" s="1">
         <v>30</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F143" s="1">
@@ -4860,6 +4854,351 @@
       </c>
       <c r="G175" s="8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="15">
+        <v>7</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="17">
+        <v>45790</v>
+      </c>
+      <c r="D176" s="16">
+        <v>1</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="16">
+        <v>70</v>
+      </c>
+      <c r="G176" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="15">
+        <v>7</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D177" s="16">
+        <v>2</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="16">
+        <v>70</v>
+      </c>
+      <c r="G177" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="15">
+        <v>7</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D178" s="16">
+        <v>3</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="16">
+        <v>70</v>
+      </c>
+      <c r="G178" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="15">
+        <v>7</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="17">
+        <v>45793</v>
+      </c>
+      <c r="D179" s="16">
+        <v>4</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="16">
+        <v>70</v>
+      </c>
+      <c r="G179" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="15">
+        <v>7</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" s="17">
+        <v>45794</v>
+      </c>
+      <c r="D180" s="16">
+        <v>5</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="16">
+        <v>70</v>
+      </c>
+      <c r="G180" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="15">
+        <v>7</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="17">
+        <v>45797</v>
+      </c>
+      <c r="D181" s="16">
+        <v>6</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="16">
+        <v>70</v>
+      </c>
+      <c r="G181" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="15">
+        <v>7</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="17">
+        <v>45798</v>
+      </c>
+      <c r="D182" s="16">
+        <v>7</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="16">
+        <v>70</v>
+      </c>
+      <c r="G182" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="15">
+        <v>7</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="17">
+        <v>45799</v>
+      </c>
+      <c r="D183" s="16">
+        <v>8</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="16">
+        <v>70</v>
+      </c>
+      <c r="G183" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="15">
+        <v>7</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" s="17">
+        <v>45800</v>
+      </c>
+      <c r="D184" s="16">
+        <v>9</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="16">
+        <v>70</v>
+      </c>
+      <c r="G184" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="15">
+        <v>7</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" s="17">
+        <v>45801</v>
+      </c>
+      <c r="D185" s="16">
+        <v>10</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="16">
+        <v>70</v>
+      </c>
+      <c r="G185" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="15">
+        <v>7</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="17">
+        <v>45804</v>
+      </c>
+      <c r="D186" s="16">
+        <v>11</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="16">
+        <v>70</v>
+      </c>
+      <c r="G186" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="15">
+        <v>7</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="17">
+        <v>45805</v>
+      </c>
+      <c r="D187" s="16">
+        <v>12</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="16">
+        <v>70</v>
+      </c>
+      <c r="G187" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="15">
+        <v>7</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="17">
+        <v>45806</v>
+      </c>
+      <c r="D188" s="16">
+        <v>13</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" s="16">
+        <v>70</v>
+      </c>
+      <c r="G188" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="15">
+        <v>7</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="17">
+        <v>45807</v>
+      </c>
+      <c r="D189" s="16">
+        <v>14</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="16">
+        <v>70</v>
+      </c>
+      <c r="G189" s="8">
+        <v>1.9310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="15">
+        <v>7</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="17">
+        <v>45808</v>
+      </c>
+      <c r="D190" s="16">
+        <v>15</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="16">
+        <v>70</v>
+      </c>
+      <c r="G190" s="8">
+        <v>1.9310000000000001E-2</v>
       </c>
     </row>
   </sheetData>
